--- a/HANDOVER_Bootstrapped/progress/bootstrapping_of_templates.xlsx
+++ b/HANDOVER_Bootstrapped/progress/bootstrapping_of_templates.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\handover-dashboard\HANDOVER_Bootstrapped\progress\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -192,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/HANDOVER_Bootstrapped/progress/bootstrapping_of_templates.xlsx
+++ b/HANDOVER_Bootstrapped/progress/bootstrapping_of_templates.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>_layout.html.twig</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Styling done but need to put in pager</t>
   </si>
 </sst>
 </file>
@@ -399,7 +402,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,6 +435,9 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -446,6 +452,9 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
